--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -13,17 +13,17 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Chara!$A$2:$L$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1550">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1876,6 +1876,21 @@
     <t xml:space="preserve">キャラバンのマスコット</t>
   </si>
   <si>
+    <t xml:space="preserve">parttimer_jure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인형옷 알바</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part time mascot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">着ぐるみのバイト</t>
+  </si>
+  <si>
     <t xml:space="preserve">fox_nefu</t>
   </si>
   <si>
@@ -4082,6 +4097,42 @@
   </si>
   <si>
     <t xml:space="preserve">パルミアの盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orc_goda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴダ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오크 부대장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice Captain of Orc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オークの副隊長</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산타클로스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Claus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンタクロース</t>
   </si>
   <si>
     <t xml:space="preserve">merchant_exotic</t>
@@ -4633,11 +4684,10 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4683,7 +4733,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -4708,7 +4758,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4724,18 +4774,10 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -4749,9 +4791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -4759,46 +4801,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -4806,67 +4848,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -4885,35 +4885,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -4925,20 +4901,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H366" activeCellId="0" sqref="H366"/>
+      <selection pane="bottomLeft" activeCell="M337" activeCellId="0" sqref="M337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -4976,7 +4952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +4978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
@@ -5019,7 +4995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +5012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
@@ -5053,7 +5029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +5055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>32</v>
       </c>
@@ -5131,7 +5107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>34</v>
       </c>
@@ -5157,7 +5133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>42</v>
       </c>
@@ -5183,7 +5159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>50</v>
       </c>
@@ -5209,7 +5185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>51</v>
       </c>
@@ -5226,7 +5202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>54</v>
       </c>
@@ -5243,7 +5219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>58</v>
       </c>
@@ -5260,7 +5236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>62</v>
       </c>
@@ -5277,7 +5253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>67</v>
       </c>
@@ -5294,7 +5270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>71</v>
       </c>
@@ -5311,7 +5287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>74</v>
       </c>
@@ -5328,7 +5304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>77</v>
       </c>
@@ -5354,7 +5330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>80</v>
       </c>
@@ -5371,7 +5347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>85</v>
       </c>
@@ -5388,7 +5364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>88</v>
       </c>
@@ -5405,7 +5381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>93</v>
       </c>
@@ -5431,7 +5407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>97</v>
       </c>
@@ -5457,7 +5433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>101</v>
       </c>
@@ -5474,7 +5450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>106</v>
       </c>
@@ -5491,7 +5467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>110</v>
       </c>
@@ -5508,7 +5484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>115</v>
       </c>
@@ -5525,7 +5501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>118</v>
       </c>
@@ -5551,7 +5527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>121</v>
       </c>
@@ -5577,7 +5553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>124</v>
       </c>
@@ -5594,7 +5570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>128</v>
       </c>
@@ -5620,7 +5596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>132</v>
       </c>
@@ -5646,7 +5622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>136</v>
       </c>
@@ -5663,7 +5639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>140</v>
       </c>
@@ -5689,7 +5665,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>144</v>
       </c>
@@ -5715,7 +5691,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>148</v>
       </c>
@@ -5732,7 +5708,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>151</v>
       </c>
@@ -5758,7 +5734,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>154</v>
       </c>
@@ -5775,7 +5751,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>157</v>
       </c>
@@ -5801,7 +5777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>164</v>
       </c>
@@ -5818,7 +5794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>167</v>
       </c>
@@ -5835,7 +5811,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>171</v>
       </c>
@@ -5852,7 +5828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>175</v>
       </c>
@@ -5869,7 +5845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>179</v>
       </c>
@@ -5886,7 +5862,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>183</v>
       </c>
@@ -5912,7 +5888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>190</v>
       </c>
@@ -5938,7 +5914,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>198</v>
       </c>
@@ -5964,7 +5940,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>206</v>
       </c>
@@ -5990,7 +5966,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>213</v>
       </c>
@@ -6007,7 +5983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>216</v>
       </c>
@@ -6024,7 +6000,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>220</v>
       </c>
@@ -6050,7 +6026,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>223</v>
       </c>
@@ -6076,7 +6052,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>226</v>
       </c>
@@ -6093,7 +6069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>229</v>
       </c>
@@ -6119,7 +6095,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>232</v>
       </c>
@@ -6136,7 +6112,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>235</v>
       </c>
@@ -6153,7 +6129,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>240</v>
       </c>
@@ -6170,7 +6146,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>244</v>
       </c>
@@ -6187,7 +6163,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>248</v>
       </c>
@@ -6204,7 +6180,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>252</v>
       </c>
@@ -6221,7 +6197,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>255</v>
       </c>
@@ -6238,7 +6214,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>258</v>
       </c>
@@ -6264,7 +6240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>262</v>
       </c>
@@ -6290,7 +6266,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>266</v>
       </c>
@@ -6307,7 +6283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>269</v>
       </c>
@@ -6324,7 +6300,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>273</v>
       </c>
@@ -6341,7 +6317,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>278</v>
       </c>
@@ -6358,7 +6334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>282</v>
       </c>
@@ -6375,7 +6351,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>285</v>
       </c>
@@ -6401,7 +6377,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>288</v>
       </c>
@@ -6427,7 +6403,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>292</v>
       </c>
@@ -6444,7 +6420,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>296</v>
       </c>
@@ -6470,7 +6446,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>299</v>
       </c>
@@ -6496,7 +6472,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>300</v>
       </c>
@@ -6522,7 +6498,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>301</v>
       </c>
@@ -6548,7 +6524,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>303</v>
       </c>
@@ -6574,7 +6550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>304</v>
       </c>
@@ -6600,7 +6576,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>306</v>
       </c>
@@ -6626,7 +6602,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>310</v>
       </c>
@@ -6643,7 +6619,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>313</v>
       </c>
@@ -6660,7 +6636,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>317</v>
       </c>
@@ -6677,7 +6653,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>320</v>
       </c>
@@ -6703,7 +6679,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>323</v>
       </c>
@@ -6720,7 +6696,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>327</v>
       </c>
@@ -6737,7 +6713,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>330</v>
       </c>
@@ -6754,7 +6730,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>334</v>
       </c>
@@ -6771,7 +6747,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>337</v>
       </c>
@@ -6797,7 +6773,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>340</v>
       </c>
@@ -6814,7 +6790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>344</v>
       </c>
@@ -6831,7 +6807,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>347</v>
       </c>
@@ -6857,7 +6833,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>351</v>
       </c>
@@ -6883,7 +6859,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>353</v>
       </c>
@@ -6909,7 +6885,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>360</v>
       </c>
@@ -6935,7 +6911,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>368</v>
       </c>
@@ -6961,7 +6937,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>375</v>
       </c>
@@ -6987,7 +6963,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>382</v>
       </c>
@@ -7013,7 +6989,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>386</v>
       </c>
@@ -7039,7 +7015,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>394</v>
       </c>
@@ -7065,7 +7041,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>401</v>
       </c>
@@ -7091,7 +7067,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>405</v>
       </c>
@@ -7108,7 +7084,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>409</v>
       </c>
@@ -7125,7 +7101,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>410</v>
       </c>
@@ -7151,7 +7127,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>414</v>
       </c>
@@ -7177,7 +7153,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>418</v>
       </c>
@@ -7194,7 +7170,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>421</v>
       </c>
@@ -7220,7 +7196,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>424</v>
       </c>
@@ -7237,7 +7213,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>427</v>
       </c>
@@ -7263,7 +7239,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>434</v>
       </c>
@@ -7280,7 +7256,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>437</v>
       </c>
@@ -7297,7 +7273,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>441</v>
       </c>
@@ -7323,7 +7299,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>444</v>
       </c>
@@ -7340,7 +7316,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>447</v>
       </c>
@@ -7357,7 +7333,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>451</v>
       </c>
@@ -7374,7 +7350,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>455</v>
       </c>
@@ -7406,7 +7382,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>465</v>
       </c>
@@ -7423,7 +7399,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>468</v>
       </c>
@@ -7440,7 +7416,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>471</v>
       </c>
@@ -7466,7 +7442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>474</v>
       </c>
@@ -7483,7 +7459,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>477</v>
       </c>
@@ -7500,7 +7476,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>481</v>
       </c>
@@ -7517,7 +7493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>484</v>
       </c>
@@ -7543,7 +7519,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>487</v>
       </c>
@@ -7569,7 +7545,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>490</v>
       </c>
@@ -7586,7 +7562,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>493</v>
       </c>
@@ -7603,7 +7579,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>497</v>
       </c>
@@ -7620,7 +7596,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>500</v>
       </c>
@@ -7646,7 +7622,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>504</v>
       </c>
@@ -7672,7 +7648,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>507</v>
       </c>
@@ -7689,7 +7665,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>512</v>
       </c>
@@ -7715,7 +7691,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>515</v>
       </c>
@@ -7741,7 +7717,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>519</v>
       </c>
@@ -7767,7 +7743,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>523</v>
       </c>
@@ -7793,7 +7769,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>526</v>
       </c>
@@ -7819,7 +7795,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>530</v>
       </c>
@@ -7845,7 +7821,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>535</v>
       </c>
@@ -7871,7 +7847,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>537</v>
       </c>
@@ -7897,7 +7873,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>541</v>
       </c>
@@ -7923,7 +7899,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>545</v>
       </c>
@@ -7949,7 +7925,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>549</v>
       </c>
@@ -7966,7 +7942,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>552</v>
       </c>
@@ -7983,7 +7959,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>556</v>
       </c>
@@ -8000,7 +7976,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>559</v>
       </c>
@@ -8017,7 +7993,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>563</v>
       </c>
@@ -8034,7 +8010,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>567</v>
       </c>
@@ -8051,7 +8027,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>571</v>
       </c>
@@ -8068,7 +8044,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>575</v>
       </c>
@@ -8085,7 +8061,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>579</v>
       </c>
@@ -8111,7 +8087,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>583</v>
       </c>
@@ -8128,7 +8104,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>588</v>
       </c>
@@ -8145,7 +8121,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>591</v>
       </c>
@@ -8162,7 +8138,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>595</v>
       </c>
@@ -8188,7 +8164,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>598</v>
       </c>
@@ -8214,7 +8190,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>601</v>
       </c>
@@ -8240,7 +8216,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>603</v>
       </c>
@@ -8266,7 +8242,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>610</v>
       </c>
@@ -8292,396 +8268,396 @@
         <v>616</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>617</v>
       </c>
       <c r="B158" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D158" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" s="0" t="s">
+      <c r="D159" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K158" s="0" t="s">
+      <c r="K159" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="L158" s="0" t="s">
+      <c r="L159" s="0" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>623</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="J161" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="K161" s="0" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="L161" s="0" t="s">
+      <c r="B162" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="0" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="E162" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="0" t="s">
+      <c r="F162" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="J162" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="K162" s="0" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L162" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B163" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="K163" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="L163" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D164" s="0" t="s">
-        <v>641</v>
+        <v>14</v>
       </c>
       <c r="E164" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="K164" s="0" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L164" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>651</v>
+        <v>13</v>
       </c>
       <c r="D167" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>653</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>655</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>13</v>
+        <v>656</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>660</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B173" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D173" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="F173" s="0" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>651</v>
-      </c>
       <c r="D174" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>677</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>13</v>
+        <v>656</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>684</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>691</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>694</v>
+        <v>13</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>695</v>
@@ -8693,116 +8669,107 @@
         <v>697</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>698</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>13</v>
+        <v>699</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>703</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="J183" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="K183" s="0" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="L183" s="0" t="s">
+      <c r="B184" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="0" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="E184" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="F184" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="L184" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D184" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="K184" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="L184" s="0" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>651</v>
-      </c>
       <c r="D185" s="0" t="s">
         <v>14</v>
       </c>
@@ -8813,526 +8780,526 @@
         <v>14</v>
       </c>
       <c r="J185" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="L185" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="K185" s="0" t="s">
+      <c r="K186" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="L185" s="0" t="s">
+      <c r="L186" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="B186" s="0" t="s">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D186" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J186" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="K186" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="L186" s="0" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D187" s="0" t="s">
-        <v>726</v>
+        <v>14</v>
       </c>
       <c r="E187" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="F187" s="0" t="s">
+      <c r="K187" s="0" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L187" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>733</v>
+        <v>13</v>
       </c>
       <c r="D189" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E189" s="0" t="s">
         <v>734</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>735</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="J189" s="0" t="s">
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="K189" s="0" t="s">
+      <c r="B190" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="L189" s="0" t="s">
+      <c r="D190" s="0" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="E190" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="B190" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" s="0" t="s">
+      <c r="F190" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="J190" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="K190" s="0" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L190" s="0" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B191" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D191" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D192" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="J192" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="K192" s="0" t="s">
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="L192" s="0" t="s">
+      <c r="B193" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="0" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>756</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>755</v>
       </c>
       <c r="F193" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="J193" s="0" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="194" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K193" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="L193" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>762</v>
+        <v>13</v>
       </c>
       <c r="D195" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E195" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>764</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>766</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>775</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="J199" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="K199" s="0" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="L199" s="0" t="s">
+      <c r="B200" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="0" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>784</v>
       </c>
       <c r="F200" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="J200" s="0" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K200" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="L200" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>789</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="J206" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="K206" s="0" t="s">
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="L206" s="0" t="s">
+      <c r="B207" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="0" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>815</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>814</v>
       </c>
       <c r="F207" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="J207" s="0" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K207" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="L207" s="0" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>305</v>
+        <v>767</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>819</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="J209" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="K209" s="0" t="s">
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="L209" s="0" t="s">
+      <c r="B210" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="0" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="E210" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="B210" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" s="0" t="s">
+      <c r="F210" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="J210" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="K210" s="0" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L210" s="0" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>833</v>
+        <v>13</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>14</v>
+        <v>834</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>14</v>
+        <v>835</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J211" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="K211" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="L211" s="0" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>837</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>14</v>
@@ -9344,309 +9311,309 @@
         <v>14</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>842</v>
+        <v>14</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>841</v>
+        <v>14</v>
       </c>
       <c r="F213" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="0" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K213" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="L213" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>846</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>853</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>864</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="J221" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="K221" s="0" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="L221" s="0" t="s">
+      <c r="B222" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="0" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="E222" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="F222" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="J222" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="L222" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D222" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="F222" s="0" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>733</v>
-      </c>
       <c r="D223" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="J223" s="0" t="s">
         <v>885</v>
       </c>
-      <c r="K223" s="0" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="L223" s="0" t="s">
+      <c r="B224" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D224" s="0" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="E224" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D224" s="0" t="s">
+      <c r="F224" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="J224" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="K224" s="0" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L224" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>14</v>
+        <v>894</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>14</v>
+        <v>895</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J225" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="K225" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="L225" s="0" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>897</v>
+        <v>14</v>
       </c>
       <c r="E226" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="K226" s="0" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L226" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>14</v>
+        <v>902</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>14</v>
+        <v>903</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J227" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="K227" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="L227" s="0" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>13</v>
@@ -9661,331 +9628,331 @@
         <v>14</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L228" s="0" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>909</v>
+        <v>14</v>
       </c>
       <c r="E229" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="F229" s="0" t="s">
+      <c r="K229" s="0" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L229" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="J235" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="K235" s="0" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="L235" s="0" t="s">
+      <c r="B236" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="0" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="E236" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="B236" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D236" s="0" t="s">
+      <c r="F236" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="J236" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="F236" s="0" t="s">
+      <c r="K236" s="0" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L236" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>948</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="J238" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="K238" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="L238" s="0" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>14</v>
+        <v>952</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>14</v>
+        <v>953</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>14</v>
+        <v>954</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>951</v>
+        <v>879</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="L239" s="0" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>954</v>
+        <v>14</v>
       </c>
       <c r="E240" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="K240" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="F240" s="0" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L240" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>14</v>
+        <v>959</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J241" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="K241" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="L241" s="0" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B242" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="K242" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="L242" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D242" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="F242" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="J242" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="K242" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="L242" s="0" t="s">
+      <c r="D243" s="0" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="E243" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="F243" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="K243" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="L243" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D243" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J243" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="K243" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="L243" s="0" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D244" s="0" t="s">
         <v>14</v>
       </c>
@@ -9996,107 +9963,116 @@
         <v>14</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="L244" s="0" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>976</v>
+        <v>14</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>975</v>
+        <v>14</v>
       </c>
       <c r="F245" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="K245" s="0" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L245" s="0" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>980</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="J246" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="K246" s="0" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>983</v>
       </c>
-      <c r="L246" s="0" t="s">
+      <c r="B247" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D247" s="0" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="E247" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="B247" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D247" s="0" t="s">
+      <c r="F247" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="J247" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="F247" s="0" t="s">
+      <c r="K247" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="J247" s="0" t="s">
+      <c r="L247" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="K247" s="0" t="s">
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="L247" s="0" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>992</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D248" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="F248" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="J248" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="F248" s="0" t="s">
+      <c r="K248" s="0" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L248" s="0" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>997</v>
+        <v>63</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>998</v>
@@ -10108,46 +10084,46 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>1001</v>
       </c>
       <c r="B250" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D250" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B251" s="0" t="s">
+      <c r="D251" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>997</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>1007</v>
@@ -10159,12 +10135,12 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>1012</v>
@@ -10176,35 +10152,26 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>1015</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>13</v>
+        <v>1016</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>14</v>
+        <v>1017</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>14</v>
+        <v>1018</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J254" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K254" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L254" s="0" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>13</v>
@@ -10219,18 +10186,18 @@
         <v>14</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>13</v>
@@ -10245,73 +10212,73 @@
         <v>14</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L256" s="0" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1028</v>
+        <v>14</v>
       </c>
       <c r="E257" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="F257" s="0" t="s">
+      <c r="K257" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="J257" s="0" t="s">
+      <c r="L257" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="K257" s="0" t="s">
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="L257" s="0" t="s">
+      <c r="B258" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="0" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="E258" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="B258" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F258" s="0" t="s">
-        <v>14</v>
+        <v>1035</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L258" s="0" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>14</v>
@@ -10323,48 +10290,48 @@
         <v>14</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L259" s="0" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B260" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L260" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J260" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K260" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L260" s="0" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D261" s="0" t="s">
         <v>14</v>
       </c>
@@ -10375,172 +10342,172 @@
         <v>14</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="L261" s="0" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1050</v>
+        <v>14</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1049</v>
+        <v>14</v>
       </c>
       <c r="F262" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K262" s="0" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L262" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E264" s="0" t="s">
         <v>1057</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J268" s="0" t="s">
         <v>1075</v>
       </c>
-      <c r="K268" s="0" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="L268" s="0" t="s">
+      <c r="B269" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" s="0" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="E269" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="B269" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F269" s="0" t="s">
-        <v>14</v>
+        <v>1079</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L269" s="0" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>13</v>
@@ -10555,48 +10522,48 @@
         <v>14</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="L270" s="0" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B271" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J271" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K271" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L271" s="0" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D271" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F271" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J271" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K271" s="0" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L271" s="0" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D272" s="0" t="s">
         <v>14</v>
       </c>
@@ -10607,193 +10574,193 @@
         <v>14</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="L272" s="0" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>1089</v>
+        <v>14</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>1090</v>
+        <v>14</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="J273" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K273" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L273" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>1093</v>
+        <v>13</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>1094</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>13</v>
+        <v>1098</v>
       </c>
       <c r="D275" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E275" s="0" t="s">
         <v>1097</v>
       </c>
-      <c r="E275" s="0" t="s">
-        <v>1098</v>
-      </c>
       <c r="F275" s="0" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E277" s="0" t="s">
         <v>1105</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>1115</v>
+        <v>13</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>14</v>
+        <v>1117</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>14</v>
+        <v>1116</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J280" s="0" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K280" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L280" s="0" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>1119</v>
       </c>
       <c r="B281" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J281" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K281" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L281" s="0" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="D281" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E281" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F281" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J281" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K281" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="L281" s="0" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>651</v>
-      </c>
       <c r="D282" s="0" t="s">
         <v>14</v>
       </c>
@@ -10804,21 +10771,21 @@
         <v>14</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
       <c r="L282" s="0" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>14</v>
@@ -10830,21 +10797,21 @@
         <v>14</v>
       </c>
       <c r="J283" s="0" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="L283" s="0" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>13</v>
+        <v>656</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>14</v>
@@ -10856,21 +10823,21 @@
         <v>14</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>982</v>
+        <v>1129</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>983</v>
+        <v>1087</v>
       </c>
       <c r="L284" s="0" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>1129</v>
+        <v>13</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>14</v>
@@ -10882,21 +10849,21 @@
         <v>14</v>
       </c>
       <c r="J285" s="0" t="s">
-        <v>1130</v>
+        <v>987</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>1131</v>
+        <v>988</v>
       </c>
       <c r="L285" s="0" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>762</v>
+        <v>1134</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>14</v>
@@ -10908,21 +10875,21 @@
         <v>14</v>
       </c>
       <c r="J286" s="0" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="L286" s="0" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>14</v>
@@ -10934,21 +10901,21 @@
         <v>14</v>
       </c>
       <c r="J287" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="L287" s="0" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>14</v>
@@ -10960,21 +10927,21 @@
         <v>14</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="L288" s="0" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>14</v>
@@ -10986,61 +10953,61 @@
         <v>14</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L289" s="0" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>1150</v>
+        <v>14</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>1149</v>
+        <v>14</v>
       </c>
       <c r="F290" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J290" s="0" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K290" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L290" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>14</v>
+        <v>1155</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>14</v>
+        <v>1154</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J291" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K291" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L291" s="0" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>13</v>
@@ -11055,108 +11022,108 @@
         <v>14</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="L292" s="0" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B293" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>1161</v>
+        <v>14</v>
       </c>
       <c r="E293" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J293" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="F293" s="0" t="s">
+      <c r="K293" s="0" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L293" s="0" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>14</v>
+        <v>1170</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>14</v>
+        <v>1169</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J295" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="K295" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="L295" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B296" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J296" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K296" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L296" s="0" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="D296" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E296" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F296" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J296" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K296" s="0" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L296" s="0" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D297" s="0" t="s">
         <v>14</v>
       </c>
@@ -11167,18 +11134,18 @@
         <v>14</v>
       </c>
       <c r="J297" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="L297" s="0" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>13</v>
@@ -11193,121 +11160,121 @@
         <v>14</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="L298" s="0" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B299" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J299" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K299" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L299" s="0" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D299" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E299" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F299" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J299" s="0" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K299" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L299" s="0" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D300" s="0" t="s">
-        <v>1186</v>
+        <v>14</v>
       </c>
       <c r="E300" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J300" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K300" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="F300" s="0" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L300" s="0" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="E302" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>14</v>
+        <v>1198</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>14</v>
+        <v>1199</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J303" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K303" s="0" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L303" s="0" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>13</v>
@@ -11322,21 +11289,21 @@
         <v>14</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="K304" s="0" t="s">
         <v>1201</v>
       </c>
       <c r="L304" s="0" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>1129</v>
+        <v>13</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>14</v>
@@ -11348,21 +11315,21 @@
         <v>14</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L305" s="0" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>14</v>
@@ -11374,47 +11341,47 @@
         <v>14</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L306" s="0" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>13</v>
+        <v>1134</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>1212</v>
+        <v>14</v>
       </c>
       <c r="E307" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J307" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="F307" s="0" t="s">
+      <c r="K307" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="J307" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="K307" s="0" t="s">
-        <v>970</v>
-      </c>
       <c r="L307" s="0" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>1216</v>
+        <v>13</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>1217</v>
@@ -11425,160 +11392,160 @@
       <c r="F308" s="0" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J308" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="K308" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="L308" s="0" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>1220</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>13</v>
+        <v>1221</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B310" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D310" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F310" s="0" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D311" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1232</v>
+        <v>13</v>
       </c>
       <c r="D312" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E312" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>1234</v>
       </c>
       <c r="F312" s="0" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>1236</v>
       </c>
       <c r="B313" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D313" s="0" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F313" s="0" t="s">
-        <v>1239</v>
-      </c>
-      <c r="J313" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K313" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L313" s="0" t="s">
+      <c r="D314" s="0" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="E314" s="0" t="s">
         <v>1243</v>
       </c>
-      <c r="B314" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E314" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F314" s="0" t="s">
-        <v>14</v>
+        <v>1244</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="L314" s="0" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B315" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J315" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K315" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L315" s="0" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D315" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E315" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F315" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J315" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K315" s="0" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L315" s="0" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D316" s="0" t="s">
         <v>14</v>
       </c>
@@ -11589,68 +11556,68 @@
         <v>14</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="L316" s="0" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B317" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J317" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K317" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L317" s="0" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="D317" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E317" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F317" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J317" s="0" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K317" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L317" s="0" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B318" s="0" t="s">
+      <c r="D318" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J318" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="K318" s="0" t="s">
         <v>1258</v>
       </c>
-      <c r="E318" s="0" t="s">
+      <c r="L318" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="F318" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J318" s="0" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K318" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L318" s="0" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>1261</v>
       </c>
@@ -11667,1200 +11634,1269 @@
         <v>1265</v>
       </c>
       <c r="J319" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K319" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L319" s="0" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
         <v>1266</v>
       </c>
-      <c r="K319" s="0" t="s">
+      <c r="B320" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="L319" s="0" t="s">
+      <c r="D320" s="0" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="320" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="E320" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="B320" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="D320" s="0" t="s">
+      <c r="F320" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="E320" s="0" t="s">
+      <c r="J320" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="F320" s="0" t="s">
+      <c r="K320" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="J320" s="0" t="s">
+      <c r="L320" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="K320" s="0" t="s">
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
         <v>1274</v>
-      </c>
-      <c r="L320" s="0" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>1276</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>602</v>
       </c>
       <c r="D321" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F321" s="0" t="s">
         <v>1277</v>
       </c>
-      <c r="E321" s="0" t="s">
+      <c r="J321" s="0" t="s">
         <v>1278</v>
       </c>
-      <c r="F321" s="0" t="s">
+      <c r="K321" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="J321" s="0" t="s">
+      <c r="L321" s="0" t="s">
         <v>1280</v>
       </c>
-      <c r="K321" s="0" t="s">
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
         <v>1281</v>
       </c>
-      <c r="L321" s="0" t="s">
+      <c r="B322" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="D322" s="0" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="E322" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="B322" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D322" s="0" t="s">
+      <c r="F322" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="E322" s="0" t="s">
+      <c r="J322" s="0" t="s">
         <v>1285</v>
       </c>
-      <c r="F322" s="0" t="s">
+      <c r="K322" s="0" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="323" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L322" s="0" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>13</v>
+        <v>1221</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>14</v>
+        <v>1289</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>14</v>
+        <v>1290</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J323" s="0" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K323" s="0" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L323" s="0" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>1291</v>
+        <v>14</v>
       </c>
       <c r="E324" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J324" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K324" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="F324" s="0" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J324" s="0" t="s">
+      <c r="L324" s="0" t="s">
         <v>1294</v>
       </c>
-      <c r="K324" s="0" t="s">
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
         <v>1295</v>
       </c>
-      <c r="L324" s="0" t="s">
+      <c r="B325" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" s="0" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="325" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="E325" s="0" t="s">
         <v>1297</v>
       </c>
-      <c r="B325" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D325" s="0" t="s">
+      <c r="F325" s="0" t="s">
         <v>1298</v>
       </c>
-      <c r="E325" s="0" t="s">
+      <c r="J325" s="0" t="s">
         <v>1299</v>
       </c>
-      <c r="F325" s="0" t="s">
+      <c r="K325" s="0" t="s">
         <v>1300</v>
       </c>
-      <c r="J325" s="0" t="s">
+      <c r="L325" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="K325" s="0" t="s">
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
         <v>1302</v>
       </c>
-      <c r="L325" s="0" t="s">
+      <c r="B326" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="0" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="326" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="E326" s="0" t="s">
         <v>1304</v>
       </c>
-      <c r="B326" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E326" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F326" s="0" t="s">
-        <v>14</v>
+        <v>1305</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="L326" s="0" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>1309</v>
+        <v>13</v>
       </c>
       <c r="D327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J327" s="0" t="s">
         <v>1310</v>
       </c>
-      <c r="E327" s="0" t="s">
+      <c r="K327" s="0" t="s">
         <v>1311</v>
       </c>
-      <c r="F327" s="0" t="s">
+      <c r="L327" s="0" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>1313</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>13</v>
+        <v>1314</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J328" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K328" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L328" s="0" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D329" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J329" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K329" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L329" s="0" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E329" s="0" t="s">
+      <c r="E330" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="F329" s="0" t="s">
+      <c r="F330" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B330" s="0" t="s">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B331" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D330" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E330" s="0" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F330" s="0" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J330" s="0" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K330" s="0" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L330" s="0" t="s">
+      <c r="D331" s="0" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="E331" s="0" t="s">
         <v>1325</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="F331" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J331" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K331" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L331" s="0" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B332" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D331" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E331" s="0" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F331" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="J331" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K331" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L331" s="0" t="s">
+      <c r="D332" s="0" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="332" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="E332" s="0" t="s">
         <v>1332</v>
       </c>
-      <c r="B332" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D332" s="0" t="s">
+      <c r="F332" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="E332" s="0" t="s">
+      <c r="J332" s="0" t="s">
         <v>1334</v>
       </c>
-      <c r="F332" s="0" t="s">
+      <c r="K332" s="0" t="s">
         <v>1335</v>
       </c>
-      <c r="J332" s="0" t="s">
+      <c r="L332" s="0" t="s">
         <v>1336</v>
       </c>
-      <c r="K332" s="0" t="s">
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
         <v>1337</v>
       </c>
-      <c r="L332" s="0" t="s">
+      <c r="B333" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="0" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="E333" s="0" t="s">
         <v>1339</v>
       </c>
-      <c r="B333" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D333" s="0" t="s">
+      <c r="F333" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="E333" s="0" t="s">
+      <c r="J333" s="0" t="s">
         <v>1341</v>
       </c>
-      <c r="F333" s="0" t="s">
+      <c r="K333" s="0" t="s">
         <v>1342</v>
       </c>
-      <c r="J333" s="0" t="s">
+      <c r="L333" s="0" t="s">
         <v>1343</v>
       </c>
-      <c r="K333" s="0" t="s">
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
         <v>1344</v>
       </c>
-      <c r="L333" s="0" t="s">
+      <c r="B334" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="0" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="E334" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="B334" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D334" s="0" t="s">
+      <c r="F334" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="J334" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="K334" s="0" t="s">
         <v>1349</v>
       </c>
-      <c r="J334" s="0" t="s">
+      <c r="L334" s="0" t="s">
         <v>1350</v>
       </c>
-      <c r="K334" s="0" t="s">
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
         <v>1351</v>
       </c>
-      <c r="L334" s="0" t="s">
+      <c r="B335" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="0" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="E335" s="0" t="s">
         <v>1353</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="F335" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J335" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K335" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L335" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J336" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K336" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L336" s="0" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D335" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E335" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F335" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J335" s="0" t="s">
-        <v>1354</v>
-      </c>
-      <c r="K335" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="L335" s="0" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E336" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F336" s="0" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B337" s="0" t="s">
+      <c r="D338" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J338" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K338" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L338" s="0" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B340" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D337" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F337" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J337" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K337" s="0" t="s">
-        <v>1362</v>
-      </c>
-      <c r="L337" s="0" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D338" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E338" s="0" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F338" s="0" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J338" s="0" t="s">
-        <v>1368</v>
-      </c>
-      <c r="K338" s="0" t="s">
-        <v>1369</v>
-      </c>
-      <c r="L338" s="0" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E339" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F339" s="0" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J339" s="0" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K339" s="0" t="s">
-        <v>1376</v>
-      </c>
-      <c r="L339" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="D340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J340" s="0" t="s">
         <v>1378</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="K340" s="0" t="s">
         <v>1379</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="L340" s="0" t="s">
         <v>1380</v>
       </c>
-      <c r="E340" s="0" t="s">
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
         <v>1381</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="B341" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" s="0" t="s">
         <v>1382</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>1384</v>
       </c>
       <c r="E341" s="0" t="s">
         <v>1383</v>
       </c>
       <c r="F341" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J341" s="0" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="342" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K341" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L341" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B342" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1391</v>
+      </c>
+      <c r="J342" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K342" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L342" s="0" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>13</v>
+        <v>1396</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>14</v>
+        <v>1397</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>14</v>
+        <v>1398</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J343" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K343" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L343" s="0" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>1392</v>
+        <v>1400</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>14</v>
+        <v>1401</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>14</v>
+        <v>1400</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J344" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K344" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="L344" s="0" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>14</v>
+        <v>1404</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>14</v>
+        <v>1403</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J345" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K345" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L345" s="0" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="B346" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J346" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K346" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L346" s="0" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J347" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K347" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L347" s="0" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J348" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K348" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L348" s="0" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B349" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="D346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J346" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K346" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L346" s="0" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F347" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="J347" s="0" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K347" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="L347" s="0" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D348" s="0" t="s">
+      <c r="D349" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J349" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K349" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="E348" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F348" s="0" t="s">
+      <c r="L349" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="J348" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="K348" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="L348" s="0" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F349" s="0" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="J349" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="K349" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="L349" s="0" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="B350" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="0" t="s">
         <v>1416</v>
       </c>
-      <c r="B350" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D350" s="0" t="s">
+      <c r="E350" s="0" t="s">
         <v>1417</v>
       </c>
-      <c r="E350" s="0" t="s">
+      <c r="F350" s="0" t="s">
         <v>1418</v>
       </c>
-      <c r="F350" s="0" t="s">
+      <c r="J350" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="J350" s="0" t="s">
+      <c r="K350" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="K350" s="0" t="s">
+      <c r="L350" s="0" t="s">
         <v>1421</v>
       </c>
-      <c r="L350" s="0" t="s">
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="B351" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="B351" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D351" s="0" t="s">
+      <c r="E351" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="E351" s="0" t="s">
+      <c r="F351" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="F351" s="0" t="s">
+      <c r="J351" s="0" t="s">
         <v>1426</v>
       </c>
-      <c r="J351" s="0" t="s">
-        <v>1240</v>
-      </c>
       <c r="K351" s="0" t="s">
-        <v>1241</v>
+        <v>1427</v>
       </c>
       <c r="L351" s="0" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J352" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K352" s="0" t="s">
         <v>1427</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D352" s="0" t="s">
+      <c r="L352" s="0" t="s">
         <v>1428</v>
       </c>
-      <c r="E352" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F352" s="0" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="L353" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B354" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J354" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K354" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L354" s="0" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J356" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K356" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L356" s="0" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B357" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D354" s="0" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E354" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F354" s="0" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E355" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F355" s="0" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E356" s="0" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F356" s="0" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D357" s="0" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>1455</v>
-      </c>
-      <c r="J358" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="K358" s="0" t="s">
-        <v>1457</v>
-      </c>
-      <c r="L358" s="0" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>762</v>
+        <v>13</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>733</v>
+        <v>13</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1466</v>
-      </c>
-      <c r="J360" s="0" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K360" s="0" t="s">
         <v>1468</v>
       </c>
-      <c r="L360" s="0" t="s">
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="361" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="B361" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="0" t="s">
         <v>1470</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="E361" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F361" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J361" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K361" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L361" s="0" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F362" s="0" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J363" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K363" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L363" s="0" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B364" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="D361" s="0" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E361" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F361" s="0" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J361" s="0" t="s">
-        <v>1474</v>
-      </c>
-      <c r="K361" s="0" t="s">
-        <v>1475</v>
-      </c>
-      <c r="L361" s="0" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D362" s="0" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E362" s="0" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F362" s="0" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J362" s="0" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K362" s="0" t="s">
-        <v>1482</v>
-      </c>
-      <c r="L362" s="0" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D363" s="0" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E363" s="0" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F363" s="0" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J363" s="0" t="s">
+      <c r="D364" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="K363" s="0" t="s">
+      <c r="E364" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="L363" s="0" t="s">
+      <c r="F364" s="0" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="364" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="J364" s="0" t="s">
         <v>1491</v>
       </c>
-      <c r="B364" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D364" s="0" t="s">
+      <c r="K364" s="0" t="s">
         <v>1492</v>
       </c>
-      <c r="E364" s="0" t="s">
+      <c r="L364" s="0" t="s">
         <v>1493</v>
       </c>
-      <c r="F364" s="0" t="s">
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
         <v>1494</v>
       </c>
-      <c r="J364" s="0" t="s">
+      <c r="B365" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="0" t="s">
         <v>1495</v>
       </c>
-      <c r="K364" s="0" t="s">
+      <c r="E365" s="0" t="s">
         <v>1496</v>
       </c>
-      <c r="L364" s="0" t="s">
+      <c r="F365" s="0" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="365" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="J365" s="0" t="s">
         <v>1498</v>
       </c>
-      <c r="B365" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D365" s="0" t="s">
+      <c r="K365" s="0" t="s">
         <v>1499</v>
       </c>
-      <c r="E365" s="0" t="s">
+      <c r="L365" s="0" t="s">
         <v>1500</v>
       </c>
-      <c r="F365" s="0" t="s">
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
         <v>1501</v>
       </c>
-      <c r="J365" s="0" t="s">
+      <c r="B366" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="0" t="s">
         <v>1502</v>
       </c>
-      <c r="K365" s="0" t="s">
+      <c r="E366" s="0" t="s">
         <v>1503</v>
       </c>
-      <c r="L365" s="0" t="s">
+      <c r="F366" s="0" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="J366" s="0" t="s">
         <v>1505</v>
       </c>
-      <c r="B366" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D366" s="0" t="s">
+      <c r="K366" s="0" t="s">
         <v>1506</v>
       </c>
-      <c r="E366" s="0" t="s">
+      <c r="L366" s="0" t="s">
         <v>1507</v>
       </c>
-      <c r="F366" s="0" t="s">
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
         <v>1508</v>
       </c>
-      <c r="J366" s="0" t="s">
+      <c r="B367" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D367" s="0" t="s">
         <v>1509</v>
       </c>
-      <c r="K366" s="0" t="s">
+      <c r="E367" s="0" t="s">
         <v>1510</v>
       </c>
-      <c r="L366" s="0" t="s">
+      <c r="F367" s="0" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="367" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="J367" s="0" t="s">
         <v>1512</v>
       </c>
-      <c r="B367" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D367" s="0" t="s">
+      <c r="K367" s="0" t="s">
         <v>1513</v>
       </c>
-      <c r="E367" s="0" t="s">
+      <c r="L367" s="0" t="s">
         <v>1514</v>
       </c>
-      <c r="F367" s="0" t="s">
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
         <v>1515</v>
       </c>
-      <c r="J367" s="0" t="s">
+      <c r="B368" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="L367" s="0" t="s">
+      <c r="E368" s="0" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="F368" s="0" t="s">
         <v>1518</v>
       </c>
-      <c r="B368" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D368" s="0" t="s">
+      <c r="J368" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="E368" s="0" t="s">
+      <c r="K368" s="0" t="s">
         <v>1520</v>
       </c>
-      <c r="F368" s="0" t="s">
+      <c r="L368" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="J368" s="0" t="s">
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="K368" s="0" t="s">
+      <c r="B369" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="0" t="s">
         <v>1523</v>
       </c>
-      <c r="L368" s="0" t="s">
+      <c r="E369" s="0" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="369" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="F369" s="0" t="s">
         <v>1525</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="J369" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="D369" s="0" t="s">
+      <c r="K369" s="0" t="s">
         <v>1527</v>
       </c>
-      <c r="E369" s="0" t="s">
+      <c r="L369" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="F369" s="0" t="s">
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="J369" s="0" t="s">
+      <c r="B370" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="K369" s="0" t="s">
+      <c r="E370" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="L369" s="0" t="s">
+      <c r="F370" s="0" t="s">
         <v>1532</v>
+      </c>
+      <c r="J370" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L370" s="0" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J371" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K371" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="L371" s="0" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F372" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J372" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K372" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L372" s="0" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="1568">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3926,6 +3926,21 @@
   </si>
   <si>
     <t xml:space="preserve">#ele3ドレイク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ele3 드래곤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ele3 dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ele3ドラゴン</t>
   </si>
   <si>
     <t xml:space="preserve">trainer</t>
@@ -4940,12 +4955,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L375"/>
+  <dimension ref="A1:L376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G367" activeCellId="0" sqref="G367"/>
+      <selection pane="bottomLeft" activeCell="H328" activeCellId="0" sqref="H328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11816,119 +11831,119 @@
         <v>1301</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>13</v>
+        <v>1302</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>14</v>
+        <v>1303</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>14</v>
+        <v>1304</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J326" s="0" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K326" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L326" s="0" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>1305</v>
+        <v>14</v>
       </c>
       <c r="E327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J327" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K327" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="F327" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J327" s="0" t="s">
+      <c r="L327" s="0" t="s">
         <v>1308</v>
-      </c>
-      <c r="K327" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L327" s="0" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E328" s="0" t="s">
         <v>1311</v>
       </c>
-      <c r="B328" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D328" s="0" t="s">
+      <c r="F328" s="0" t="s">
         <v>1312</v>
       </c>
-      <c r="E328" s="0" t="s">
+      <c r="J328" s="0" t="s">
         <v>1313</v>
       </c>
-      <c r="F328" s="0" t="s">
+      <c r="K328" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="J328" s="0" t="s">
+      <c r="L328" s="0" t="s">
         <v>1315</v>
-      </c>
-      <c r="K328" s="0" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L328" s="0" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E329" s="0" t="s">
         <v>1318</v>
       </c>
-      <c r="B329" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E329" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F329" s="0" t="s">
-        <v>14</v>
+        <v>1319</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="L329" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>1323</v>
+        <v>13</v>
       </c>
       <c r="D330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J330" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="E330" s="0" t="s">
+      <c r="K330" s="0" t="s">
         <v>1325</v>
       </c>
-      <c r="F330" s="0" t="s">
+      <c r="L330" s="0" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -11937,369 +11952,369 @@
         <v>1327</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>13</v>
+        <v>1328</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J331" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K331" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L331" s="0" t="s">
-        <v>1256</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>200</v>
+        <v>1333</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>201</v>
+        <v>1334</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>202</v>
+        <v>1335</v>
+      </c>
+      <c r="J332" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K332" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L332" s="0" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>1333</v>
+        <v>200</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>1334</v>
+        <v>201</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J333" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K333" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="L333" s="0" t="s">
-        <v>1338</v>
+        <v>202</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E334" s="0" t="s">
         <v>1339</v>
       </c>
-      <c r="B334" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D334" s="0" t="s">
+      <c r="F334" s="0" t="s">
         <v>1340</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="J334" s="0" t="s">
         <v>1341</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="K334" s="0" t="s">
         <v>1342</v>
       </c>
-      <c r="J334" s="0" t="s">
+      <c r="L334" s="0" t="s">
         <v>1343</v>
-      </c>
-      <c r="K334" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L334" s="0" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E335" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="B335" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D335" s="0" t="s">
+      <c r="F335" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="E335" s="0" t="s">
+      <c r="J335" s="0" t="s">
         <v>1348</v>
       </c>
-      <c r="F335" s="0" t="s">
+      <c r="K335" s="0" t="s">
         <v>1349</v>
       </c>
-      <c r="J335" s="0" t="s">
+      <c r="L335" s="0" t="s">
         <v>1350</v>
-      </c>
-      <c r="K335" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L335" s="0" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E336" s="0" t="s">
         <v>1353</v>
       </c>
-      <c r="B336" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D336" s="0" t="s">
+      <c r="F336" s="0" t="s">
         <v>1354</v>
       </c>
-      <c r="E336" s="0" t="s">
+      <c r="J336" s="0" t="s">
         <v>1355</v>
       </c>
-      <c r="F336" s="0" t="s">
+      <c r="K336" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="J336" s="0" t="s">
+      <c r="L336" s="0" t="s">
         <v>1357</v>
-      </c>
-      <c r="K336" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="L336" s="0" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E337" s="0" t="s">
         <v>1360</v>
       </c>
-      <c r="B337" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D337" s="0" t="s">
+      <c r="F337" s="0" t="s">
         <v>1361</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="J337" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="K337" s="0" t="s">
         <v>1363</v>
       </c>
-      <c r="J337" s="0" t="s">
+      <c r="L337" s="0" t="s">
         <v>1364</v>
-      </c>
-      <c r="K337" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="L337" s="0" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E338" s="0" t="s">
         <v>1367</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="F338" s="0" t="s">
         <v>1368</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="J338" s="0" t="s">
         <v>1369</v>
       </c>
-      <c r="E338" s="0" t="s">
+      <c r="K338" s="0" t="s">
         <v>1370</v>
       </c>
-      <c r="F338" s="0" t="s">
+      <c r="L338" s="0" t="s">
         <v>1371</v>
-      </c>
-      <c r="J338" s="0" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K338" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="L338" s="0" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E339" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="B339" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="D339" s="0" t="s">
+      <c r="F339" s="0" t="s">
         <v>1376</v>
       </c>
-      <c r="E339" s="0" t="s">
+      <c r="J339" s="0" t="s">
         <v>1377</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="K339" s="0" t="s">
         <v>1378</v>
+      </c>
+      <c r="L339" s="0" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>302</v>
+        <v>618</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>14</v>
+        <v>1381</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>14</v>
+        <v>1382</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J340" s="0" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K340" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="L340" s="0" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>1384</v>
+        <v>14</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>1383</v>
+        <v>14</v>
       </c>
       <c r="F341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J341" s="0" t="s">
         <v>1385</v>
+      </c>
+      <c r="K341" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L341" s="0" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>735</v>
+        <v>13</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="E342" s="0" t="s">
         <v>1388</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>63</v>
+        <v>735</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>14</v>
+        <v>1392</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>14</v>
+        <v>1393</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J343" s="0" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K343" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="L343" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>1395</v>
+        <v>14</v>
       </c>
       <c r="E344" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J344" s="0" t="s">
         <v>1396</v>
       </c>
-      <c r="F344" s="0" t="s">
+      <c r="K344" s="0" t="s">
         <v>1397</v>
       </c>
-      <c r="J344" s="0" t="s">
+      <c r="L344" s="0" t="s">
         <v>1398</v>
-      </c>
-      <c r="K344" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="L344" s="0" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E345" s="0" t="s">
         <v>1401</v>
       </c>
-      <c r="B345" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D345" s="0" t="s">
+      <c r="F345" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="E345" s="0" t="s">
+      <c r="J345" s="0" t="s">
         <v>1403</v>
       </c>
-      <c r="F345" s="0" t="s">
+      <c r="K345" s="0" t="s">
         <v>1404</v>
       </c>
-      <c r="J345" s="0" t="s">
+      <c r="L345" s="0" t="s">
         <v>1405</v>
-      </c>
-      <c r="K345" s="0" t="s">
-        <v>1406</v>
-      </c>
-      <c r="L345" s="0" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E346" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="F346" s="0" t="s">
         <v>1409</v>
       </c>
-      <c r="D346" s="0" t="s">
+      <c r="J346" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="E346" s="0" t="s">
+      <c r="K346" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="F346" s="0" t="s">
+      <c r="L346" s="0" t="s">
         <v>1412</v>
       </c>
     </row>
@@ -12308,64 +12323,55 @@
         <v>1413</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>13</v>
+        <v>1414</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>14</v>
+        <v>1422</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>14</v>
+        <v>1421</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J349" s="0" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K349" s="0" t="s">
-        <v>1419</v>
-      </c>
-      <c r="L349" s="0" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>13</v>
@@ -12380,18 +12386,18 @@
         <v>14</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K350" s="0" t="s">
         <v>1424</v>
       </c>
       <c r="L350" s="0" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>13</v>
@@ -12406,21 +12412,21 @@
         <v>14</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>1419</v>
+        <v>1429</v>
       </c>
       <c r="L351" s="0" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>602</v>
+        <v>13</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>14</v>
@@ -12432,554 +12438,580 @@
         <v>14</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="L352" s="0" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>1429</v>
+        <v>14</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>1430</v>
+        <v>14</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1431</v>
+        <v>14</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="L353" s="0" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E354" s="0" t="s">
         <v>1435</v>
       </c>
-      <c r="B354" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D354" s="0" t="s">
+      <c r="F354" s="0" t="s">
         <v>1436</v>
       </c>
-      <c r="E354" s="0" t="s">
+      <c r="J354" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="F354" s="0" t="s">
+      <c r="K354" s="0" t="s">
         <v>1438</v>
       </c>
-      <c r="J354" s="0" t="s">
+      <c r="L354" s="0" t="s">
         <v>1439</v>
-      </c>
-      <c r="K354" s="0" t="s">
-        <v>1440</v>
-      </c>
-      <c r="L354" s="0" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E355" s="0" t="s">
         <v>1442</v>
       </c>
-      <c r="B355" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D355" s="0" t="s">
+      <c r="F355" s="0" t="s">
         <v>1443</v>
       </c>
-      <c r="E355" s="0" t="s">
+      <c r="J355" s="0" t="s">
         <v>1444</v>
       </c>
-      <c r="F355" s="0" t="s">
+      <c r="K355" s="0" t="s">
         <v>1445</v>
       </c>
-      <c r="J355" s="0" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K355" s="0" t="s">
-        <v>1440</v>
-      </c>
       <c r="L355" s="0" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J356" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K356" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L356" s="0" t="s">
         <v>1446</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E356" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F356" s="0" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J356" s="0" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K356" s="0" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L356" s="0" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E357" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="B357" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D357" s="0" t="s">
+      <c r="F357" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="E357" s="0" t="s">
+      <c r="J357" s="0" t="s">
         <v>1455</v>
       </c>
-      <c r="F357" s="0" t="s">
+      <c r="K357" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="J357" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K357" s="0" t="s">
-        <v>1255</v>
-      </c>
       <c r="L357" s="0" t="s">
-        <v>1256</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
+      </c>
+      <c r="J358" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K358" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L358" s="0" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="J359" s="0" t="s">
         <v>1465</v>
-      </c>
-      <c r="K359" s="0" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L359" s="0" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E360" s="0" t="s">
         <v>1468</v>
       </c>
       <c r="F360" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J360" s="0" t="s">
         <v>1470</v>
+      </c>
+      <c r="K360" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L360" s="0" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E361" s="0" t="s">
         <v>1473</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="E363" s="0" t="s">
         <v>1480</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>1485</v>
-      </c>
-      <c r="J364" s="0" t="s">
         <v>1486</v>
-      </c>
-      <c r="K364" s="0" t="s">
-        <v>1487</v>
-      </c>
-      <c r="L364" s="0" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E365" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="B365" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="D365" s="0" t="s">
+      <c r="F365" s="0" t="s">
         <v>1490</v>
       </c>
-      <c r="E365" s="0" t="s">
+      <c r="J365" s="0" t="s">
         <v>1491</v>
       </c>
-      <c r="F365" s="0" t="s">
+      <c r="K365" s="0" t="s">
         <v>1492</v>
+      </c>
+      <c r="L365" s="0" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J366" s="0" t="s">
         <v>1497</v>
-      </c>
-      <c r="K366" s="0" t="s">
-        <v>1498</v>
-      </c>
-      <c r="L366" s="0" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E367" s="0" t="s">
         <v>1500</v>
       </c>
-      <c r="B367" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D367" s="0" t="s">
+      <c r="F367" s="0" t="s">
         <v>1501</v>
       </c>
-      <c r="E367" s="0" t="s">
+      <c r="J367" s="0" t="s">
         <v>1502</v>
       </c>
-      <c r="F367" s="0" t="s">
+      <c r="K367" s="0" t="s">
         <v>1503</v>
       </c>
-      <c r="J367" s="0" t="s">
+      <c r="L367" s="0" t="s">
         <v>1504</v>
-      </c>
-      <c r="K367" s="0" t="s">
-        <v>1505</v>
-      </c>
-      <c r="L367" s="0" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E368" s="0" t="s">
         <v>1507</v>
       </c>
-      <c r="B368" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D368" s="0" t="s">
+      <c r="F368" s="0" t="s">
         <v>1508</v>
       </c>
-      <c r="E368" s="0" t="s">
+      <c r="J368" s="0" t="s">
         <v>1509</v>
       </c>
-      <c r="F368" s="0" t="s">
+      <c r="K368" s="0" t="s">
         <v>1510</v>
       </c>
-      <c r="J368" s="0" t="s">
+      <c r="L368" s="0" t="s">
         <v>1511</v>
-      </c>
-      <c r="K368" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="L368" s="0" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E369" s="0" t="s">
         <v>1514</v>
       </c>
-      <c r="B369" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D369" s="0" t="s">
+      <c r="F369" s="0" t="s">
         <v>1515</v>
       </c>
-      <c r="E369" s="0" t="s">
+      <c r="J369" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="F369" s="0" t="s">
+      <c r="K369" s="0" t="s">
         <v>1517</v>
       </c>
-      <c r="J369" s="0" t="s">
+      <c r="L369" s="0" t="s">
         <v>1518</v>
-      </c>
-      <c r="K369" s="0" t="s">
-        <v>1519</v>
-      </c>
-      <c r="L369" s="0" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E370" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="B370" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D370" s="0" t="s">
+      <c r="F370" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="E370" s="0" t="s">
+      <c r="J370" s="0" t="s">
         <v>1523</v>
       </c>
-      <c r="F370" s="0" t="s">
+      <c r="K370" s="0" t="s">
         <v>1524</v>
       </c>
-      <c r="J370" s="0" t="s">
+      <c r="L370" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="K370" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L370" s="0" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E371" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="B371" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D371" s="0" t="s">
+      <c r="F371" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="E371" s="0" t="s">
+      <c r="J371" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="F371" s="0" t="s">
+      <c r="K371" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="J371" s="0" t="s">
+      <c r="L371" s="0" t="s">
         <v>1532</v>
-      </c>
-      <c r="K371" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="L371" s="0" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E372" s="0" t="s">
         <v>1535</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D372" s="0" t="s">
+      <c r="F372" s="0" t="s">
         <v>1536</v>
       </c>
-      <c r="E372" s="0" t="s">
+      <c r="J372" s="0" t="s">
         <v>1537</v>
       </c>
-      <c r="F372" s="0" t="s">
+      <c r="K372" s="0" t="s">
         <v>1538</v>
       </c>
-      <c r="J372" s="0" t="s">
+      <c r="L372" s="0" t="s">
         <v>1539</v>
-      </c>
-      <c r="K372" s="0" t="s">
-        <v>1540</v>
-      </c>
-      <c r="L372" s="0" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E373" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="B373" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D373" s="0" t="s">
+      <c r="F373" s="0" t="s">
         <v>1543</v>
       </c>
-      <c r="E373" s="0" t="s">
+      <c r="J373" s="0" t="s">
         <v>1544</v>
       </c>
-      <c r="F373" s="0" t="s">
+      <c r="K373" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="J373" s="0" t="s">
+      <c r="L373" s="0" t="s">
         <v>1546</v>
-      </c>
-      <c r="L373" s="0" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" s="0" t="s">
         <v>1548</v>
       </c>
-      <c r="B374" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D374" s="0" t="s">
+      <c r="E374" s="0" t="s">
         <v>1549</v>
       </c>
-      <c r="E374" s="0" t="s">
+      <c r="F374" s="0" t="s">
         <v>1550</v>
       </c>
-      <c r="F374" s="0" t="s">
+      <c r="J374" s="0" t="s">
         <v>1551</v>
       </c>
-      <c r="J374" s="0" t="s">
+      <c r="L374" s="0" t="s">
         <v>1552</v>
-      </c>
-      <c r="K374" s="0" t="s">
-        <v>1553</v>
-      </c>
-      <c r="L374" s="0" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E375" s="0" t="s">
         <v>1555</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="F375" s="0" t="s">
         <v>1556</v>
       </c>
-      <c r="D375" s="0" t="s">
+      <c r="J375" s="0" t="s">
         <v>1557</v>
       </c>
-      <c r="E375" s="0" t="s">
+      <c r="K375" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="F375" s="0" t="s">
+      <c r="L375" s="0" t="s">
         <v>1559</v>
       </c>
-      <c r="J375" s="0" t="s">
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
         <v>1560</v>
       </c>
-      <c r="K375" s="0" t="s">
+      <c r="B376" s="0" t="s">
         <v>1561</v>
       </c>
-      <c r="L375" s="0" t="s">
+      <c r="D376" s="0" t="s">
         <v>1562</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F376" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J376" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K376" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L376" s="0" t="s">
+        <v>1567</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Chara.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1709">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1045,6 +1045,21 @@
     <t xml:space="preserve">まだら蜘蛛</t>
   </si>
   <si>
+    <t xml:space="preserve">spider_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블랙 위도우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブラックウィドウ</t>
+  </si>
+  <si>
     <t xml:space="preserve">orc</t>
   </si>
   <si>
@@ -2080,6 +2095,18 @@
     <t xml:space="preserve">戦士</t>
   </si>
   <si>
+    <t xml:space="preserve">mush2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">버섯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きのこ</t>
+  </si>
+  <si>
     <t xml:space="preserve">mush</t>
   </si>
   <si>
@@ -2374,6 +2401,27 @@
     <t xml:space="preserve">青の洗礼者</t>
   </si>
   <si>
+    <t xml:space="preserve">ungaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">웅가가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウンガガ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미노타우르스 왕자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minotaur prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロスの王子</t>
+  </si>
+  <si>
     <t xml:space="preserve">minotaur</t>
   </si>
   <si>
@@ -3448,6 +3496,30 @@
     <t xml:space="preserve">鉄塊</t>
   </si>
   <si>
+    <t xml:space="preserve">armor_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데스 아머</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デスアーマー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor_gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">골든 아머</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴールデンアーマー</t>
+  </si>
+  <si>
     <t xml:space="preserve">nun_mother</t>
   </si>
   <si>
@@ -3535,6 +3607,30 @@
     <t xml:space="preserve">グリズリー</t>
   </si>
   <si>
+    <t xml:space="preserve">ent_fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불타는 나무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火炎樹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ent_cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼어붙은 나무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷結樹</t>
+  </si>
+  <si>
     <t xml:space="preserve">pumpkin</t>
   </si>
   <si>
@@ -4180,6 +4276,27 @@
     <t xml:space="preserve">究極竜</t>
   </si>
   <si>
+    <t xml:space="preserve">handmaiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">루로스의 시녀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handmaiden of Lolth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルロスの侍女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yochlol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요크롤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヨクロール</t>
+  </si>
+  <si>
     <t xml:space="preserve">trainer</t>
   </si>
   <si>
@@ -4273,6 +4390,12 @@
     <t xml:space="preserve">korgon</t>
   </si>
   <si>
+    <t xml:space="preserve">Papa Corgon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コルゴンのパパ</t>
+  </si>
+  <si>
     <t xml:space="preserve">melilith_boss</t>
   </si>
   <si>
@@ -4586,6 +4709,15 @@
   </si>
   <si>
     <t xml:space="preserve">巨人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사이클롭스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サイクロプス</t>
   </si>
   <si>
     <t xml:space="preserve">guard</t>
@@ -5246,12 +5378,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L399"/>
+  <dimension ref="A1:L409"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I398" activeCellId="0" sqref="I398"/>
+      <selection pane="bottomLeft" activeCell="H299" activeCellId="0" sqref="H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7106,144 +7238,135 @@
         <v>340</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>345</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="0" t="s">
         <v>356</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="L95" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>365</v>
+        <v>63</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>14</v>
@@ -7255,289 +7378,289 @@
         <v>14</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="0" t="s">
+      <c r="K97" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="L97" s="0" t="s">
         <v>368</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="L97" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="F98" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="J98" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="K98" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="L98" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="L98" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="0" t="s">
+      <c r="F99" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="J99" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="K99" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="J99" s="0" t="s">
+      <c r="L99" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="K99" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D100" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="J100" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="K100" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="J100" s="0" t="s">
+      <c r="L100" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>14</v>
+        <v>395</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="D102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="K102" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="L102" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="J102" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="K102" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="L102" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="0" t="s">
+      <c r="F103" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="J103" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="K103" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="J103" s="0" t="s">
+      <c r="L103" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="K103" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="L103" s="0" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="F104" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>416</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="K105" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>421</v>
+      <c r="L105" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>14</v>
+        <v>425</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="K107" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="L107" s="0" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>14</v>
@@ -7549,29 +7672,38 @@
         <v>14</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="D109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="K109" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="L109" s="0" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7580,204 +7712,204 @@
         <v>436</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>85</v>
+        <v>439</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="L111" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>443</v>
+        <v>14</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="K112" s="0" t="s">
         <v>444</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>447</v>
+        <v>106</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="J113" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>452</v>
       </c>
       <c r="F114" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="J114" s="0" t="s">
         <v>454</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>457</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="K116" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="L116" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>463</v>
+        <v>14</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>462</v>
+        <v>14</v>
       </c>
       <c r="F117" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="K117" s="0" t="s">
         <v>464</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>467</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>475</v>
@@ -7788,199 +7920,190 @@
       <c r="F120" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="G120" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="K120" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="L120" s="0" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="G121" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="0" t="s">
+      <c r="I121" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="F121" s="0" t="s">
+      <c r="J121" s="0" t="s">
         <v>485</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>491</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>283</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>14</v>
+        <v>499</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="K125" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="L125" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>501</v>
+        <v>14</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="F126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K126" s="0" t="s">
         <v>502</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>505</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>14</v>
+        <v>513</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="K129" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="L129" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>14</v>
@@ -7992,98 +8115,98 @@
         <v>14</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L130" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>517</v>
+        <v>14</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>516</v>
+        <v>14</v>
       </c>
       <c r="F131" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="K131" s="0" t="s">
         <v>518</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>521</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>14</v>
+        <v>529</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>14</v>
+        <v>528</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="K134" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="L134" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>14</v>
@@ -8095,81 +8218,81 @@
         <v>14</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>534</v>
+        <v>14</v>
       </c>
       <c r="E136" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="K136" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="F136" s="0" t="s">
-        <v>536</v>
+      <c r="L136" s="0" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>537</v>
+        <v>283</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>13</v>
+        <v>542</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>14</v>
+        <v>543</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>14</v>
+        <v>544</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="K138" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="L138" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>14</v>
@@ -8181,18 +8304,18 @@
         <v>14</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>546</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>63</v>
@@ -8207,18 +8330,18 @@
         <v>14</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>63</v>
@@ -8233,18 +8356,18 @@
         <v>14</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>63</v>
@@ -8259,39 +8382,39 @@
         <v>14</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K142" s="0" t="s">
         <v>557</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>560</v>
+        <v>14</v>
       </c>
       <c r="E143" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="K143" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="J143" s="0" t="s">
+      <c r="L143" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="K143" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="L143" s="0" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,30 +8422,30 @@
         <v>564</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>14</v>
+        <v>565</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>14</v>
+        <v>566</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>14</v>
+        <v>567</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>63</v>
@@ -8337,18 +8460,18 @@
         <v>14</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>63</v>
@@ -8363,21 +8486,21 @@
         <v>14</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>575</v>
+        <v>63</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>14</v>
@@ -8392,188 +8515,197 @@
         <v>576</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>13</v>
+        <v>580</v>
       </c>
       <c r="D148" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="K148" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="E148" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>580</v>
+      <c r="L148" s="0" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>590</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>14</v>
+        <v>610</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>14</v>
+        <v>611</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="K156" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="L156" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>613</v>
+        <v>63</v>
       </c>
       <c r="D157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="K157" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="L157" s="0" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8582,64 +8714,55 @@
         <v>617</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>13</v>
+        <v>618</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>622</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>14</v>
+        <v>626</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>14</v>
+        <v>627</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="K160" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="L160" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>13</v>
@@ -8654,21 +8777,21 @@
         <v>14</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L161" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>14</v>
@@ -8680,107 +8803,116 @@
         <v>14</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L162" s="0" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="K163" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="E163" s="0" t="s">
+      <c r="L163" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="J163" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="K163" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="L163" s="0" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E164" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D164" s="0" t="s">
+      <c r="F164" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="J164" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="K164" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="J164" s="0" t="s">
+      <c r="L164" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="K164" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="L164" s="0" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E165" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D165" s="0" t="s">
+      <c r="F165" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="J165" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="K165" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="J165" s="0" t="s">
+      <c r="L165" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="K165" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="L165" s="0" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="E166" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="F166" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="J166" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="K166" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="L166" s="0" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8789,425 +8921,425 @@
         <v>658</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>315</v>
+        <v>659</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>14</v>
+        <v>660</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>14</v>
+        <v>661</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J167" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="K167" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="L167" s="0" t="s">
-        <v>322</v>
+        <v>662</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>660</v>
+        <v>14</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>659</v>
+        <v>14</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>661</v>
+        <v>14</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="L168" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>664</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="J170" s="0" t="s">
         <v>670</v>
-      </c>
-      <c r="K170" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="L170" s="0" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E171" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="0" t="s">
+      <c r="F171" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="J171" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="K171" s="0" t="s">
         <v>676</v>
+      </c>
+      <c r="L171" s="0" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>14</v>
+        <v>683</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>14</v>
+        <v>684</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J173" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="K173" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="L173" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>686</v>
+        <v>14</v>
       </c>
       <c r="E174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="K174" s="0" t="s">
         <v>688</v>
+      </c>
+      <c r="L174" s="0" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>696</v>
+        <v>13</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>698</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="E178" s="0" t="s">
-        <v>700</v>
-      </c>
       <c r="F178" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>13</v>
+        <v>705</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>709</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>696</v>
+        <v>13</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>13</v>
+        <v>705</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>740</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>743</v>
+        <v>283</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>744</v>
@@ -9230,130 +9362,112 @@
         <v>748</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>236</v>
+        <v>752</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>756</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="J194" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="K194" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="L194" s="0" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E195" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F195" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J195" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="K195" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="L195" s="0" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E196" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F196" s="0" t="s">
-        <v>14</v>
+        <v>770</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>351</v>
+        <v>771</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>121</v>
+        <v>772</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>352</v>
+        <v>773</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>43</v>
+        <v>618</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>14</v>
@@ -9365,46 +9479,64 @@
         <v>14</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>13</v>
+        <v>705</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>775</v>
+        <v>14</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>776</v>
+        <v>14</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>777</v>
+        <v>14</v>
+      </c>
+      <c r="J198" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="K198" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L198" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="D199" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="K199" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="L199" s="0" t="s">
         <v>782</v>
       </c>
     </row>
@@ -9419,86 +9551,86 @@
         <v>784</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>283</v>
+        <v>788</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
+      </c>
+      <c r="J202" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="K202" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="L202" s="0" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>799</v>
+        <v>283</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="J204" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="K204" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="L204" s="0" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9507,7 +9639,7 @@
         <v>806</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>807</v>
@@ -9524,7 +9656,7 @@
         <v>810</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>613</v>
+        <v>283</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>811</v>
@@ -9541,383 +9673,374 @@
         <v>814</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>13</v>
+        <v>815</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L207" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>13</v>
+        <v>618</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>828</v>
+        <v>13</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
+      </c>
+      <c r="J210" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="K210" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="L210" s="0" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="J214" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="K214" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="L214" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
+      </c>
+      <c r="J217" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="K217" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="L217" s="0" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="J221" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="K221" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="L221" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>828</v>
+        <v>236</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="L224" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>896</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>899</v>
+        <v>318</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>14</v>
+        <v>901</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J226" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="K226" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="L226" s="0" t="s">
         <v>902</v>
       </c>
     </row>
@@ -9929,318 +10052,318 @@
         <v>13</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>14</v>
+        <v>904</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>14</v>
+        <v>905</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>14</v>
+        <v>906</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="L227" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>236</v>
+        <v>915</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>911</v>
+        <v>14</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>912</v>
+        <v>14</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>913</v>
+        <v>14</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="L229" s="0" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>915</v>
+        <v>14</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>914</v>
+        <v>14</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>916</v>
+        <v>14</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="L230" s="0" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="J236" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="K236" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="L236" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>799</v>
+        <v>13</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="J238" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="K238" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="L238" s="0" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E239" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="B239" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D239" s="0" t="s">
+      <c r="F239" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="J239" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="F239" s="0" t="s">
+      <c r="K239" s="0" t="s">
         <v>957</v>
+      </c>
+      <c r="L239" s="0" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>14</v>
+        <v>961</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J240" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="K240" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="L240" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>13</v>
+        <v>815</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="L241" s="0" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>14</v>
+        <v>971</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>14</v>
+        <v>972</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J242" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="K242" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="L242" s="0" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>13</v>
@@ -10255,327 +10378,318 @@
         <v>14</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="L243" s="0" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>979</v>
+        <v>14</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>981</v>
+        <v>14</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="K245" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="L245" s="0" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>983</v>
+        <v>14</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>984</v>
+        <v>14</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>985</v>
+        <v>14</v>
+      </c>
+      <c r="J246" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="K246" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="L246" s="0" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J250" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K250" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L250" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>940</v>
+        <v>1018</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>941</v>
+        <v>1019</v>
       </c>
       <c r="L253" s="0" t="s">
-        <v>942</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>14</v>
+        <v>1022</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>14</v>
+        <v>1023</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J254" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K254" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L254" s="0" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>14</v>
+        <v>1029</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>14</v>
+        <v>1030</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>14</v>
+        <v>1031</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>1024</v>
+        <v>956</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1025</v>
+        <v>957</v>
       </c>
       <c r="L256" s="0" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1028</v>
+        <v>14</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1029</v>
+        <v>14</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>1030</v>
+        <v>14</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K257" s="0" t="s">
         <v>1032</v>
       </c>
       <c r="L257" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>14</v>
+        <v>1036</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>14</v>
+        <v>1037</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J258" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K258" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L258" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>13</v>
@@ -10590,132 +10704,150 @@
         <v>14</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="L259" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>13</v>
+        <v>479</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L260" s="0" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>779</v>
+        <v>28</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1045</v>
+        <v>14</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1046</v>
+        <v>14</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>1047</v>
+        <v>14</v>
+      </c>
+      <c r="J261" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K261" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L261" s="0" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1049</v>
+        <v>14</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1050</v>
+        <v>14</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>1051</v>
+        <v>14</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L262" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E263" s="0" t="s">
         <v>1057</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J263" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="K263" s="0" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L263" s="0" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E264" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="B264" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D264" s="0" t="s">
+      <c r="F264" s="0" t="s">
         <v>1063</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F264" s="0" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E265" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="F265" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="D265" s="0" t="s">
+      <c r="J265" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="E265" s="0" t="s">
+      <c r="K265" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="F265" s="0" t="s">
+      <c r="L265" s="0" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -10735,168 +10867,150 @@
       <c r="F266" s="0" t="s">
         <v>1074</v>
       </c>
+      <c r="J266" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K266" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L266" s="0" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>1081</v>
+        <v>63</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>14</v>
+        <v>1088</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>14</v>
+        <v>1089</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J270" s="0" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K270" s="0" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L270" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>13</v>
+        <v>1083</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>14</v>
+        <v>1093</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>14</v>
+        <v>1094</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J271" s="0" t="s">
-        <v>1090</v>
-      </c>
-      <c r="K271" s="0" t="s">
-        <v>1091</v>
-      </c>
-      <c r="L271" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>13</v>
+        <v>1097</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>14</v>
+        <v>1098</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>14</v>
+        <v>1099</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J272" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K272" s="0" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L272" s="0" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>1098</v>
+        <v>14</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>1099</v>
+        <v>14</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>1100</v>
+        <v>14</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L273" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>899</v>
+        <v>13</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>14</v>
@@ -10908,18 +11022,18 @@
         <v>14</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L274" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>13</v>
@@ -10934,47 +11048,47 @@
         <v>14</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="L275" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>14</v>
+        <v>1114</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>14</v>
+        <v>1115</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>14</v>
+        <v>1116</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="L276" s="0" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>13</v>
+        <v>915</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>14</v>
@@ -10986,588 +11100,552 @@
         <v>14</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="L277" s="0" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>1120</v>
+        <v>14</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>1119</v>
+        <v>14</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>1121</v>
+        <v>14</v>
+      </c>
+      <c r="J278" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K278" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L278" s="0" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>1123</v>
+        <v>14</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>1122</v>
+        <v>14</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>1124</v>
+        <v>14</v>
+      </c>
+      <c r="J279" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K279" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L279" s="0" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>1126</v>
+        <v>14</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>1127</v>
+        <v>14</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>1128</v>
+        <v>14</v>
+      </c>
+      <c r="J280" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K280" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L280" s="0" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J285" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="K285" s="0" t="s">
-        <v>1150</v>
-      </c>
-      <c r="L285" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>14</v>
+        <v>1154</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>14</v>
+        <v>1155</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J286" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K286" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L286" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>14</v>
+        <v>1158</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>14</v>
+        <v>1159</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J287" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="K287" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L287" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>14</v>
+        <v>1162</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>14</v>
+        <v>1163</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J288" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K288" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L288" s="0" t="s">
-        <v>1111</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>14</v>
+        <v>1166</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>14</v>
+        <v>1167</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J289" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K289" s="0" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L289" s="0" t="s">
-        <v>1111</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>1165</v>
+        <v>1172</v>
+      </c>
+      <c r="J290" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K290" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L290" s="0" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>1167</v>
+        <v>14</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>1168</v>
+        <v>14</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>1169</v>
+        <v>14</v>
+      </c>
+      <c r="J291" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K291" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L291" s="0" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>1171</v>
+        <v>13</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>1172</v>
+        <v>14</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>1170</v>
+        <v>14</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>1173</v>
+        <v>14</v>
+      </c>
+      <c r="J292" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K292" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L292" s="0" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>1175</v>
+        <v>14</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>1176</v>
+        <v>14</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>1177</v>
+        <v>14</v>
+      </c>
+      <c r="J293" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K293" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L293" s="0" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>1179</v>
+        <v>14</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>1178</v>
+        <v>14</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>1180</v>
+        <v>14</v>
+      </c>
+      <c r="J294" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K294" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L294" s="0" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>1193</v>
+        <v>341</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>14</v>
+        <v>1199</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>14</v>
+        <v>1200</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J298" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K298" s="0" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L298" s="0" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>274</v>
+        <v>1203</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>14</v>
+        <v>1204</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>14</v>
+        <v>1202</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J299" s="0" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K299" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L299" s="0" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>696</v>
+        <v>13</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>14</v>
+        <v>1207</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>14</v>
+        <v>1208</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J300" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K300" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="L300" s="0" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>696</v>
+        <v>13</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>14</v>
+        <v>1211</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>14</v>
+        <v>1210</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J301" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K301" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="L301" s="0" t="s">
-        <v>1203</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>14</v>
+        <v>1214</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>14</v>
+        <v>1215</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J302" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K302" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L302" s="0" t="s">
-        <v>1054</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>1207</v>
+        <v>13</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>14</v>
+        <v>1218</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>14</v>
+        <v>1219</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J303" s="0" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K303" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L303" s="0" t="s">
-        <v>1210</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>828</v>
+        <v>13</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>14</v>
+        <v>1222</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>14</v>
+        <v>1221</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J304" s="0" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K304" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L304" s="0" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>828</v>
+        <v>1225</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>14</v>
@@ -11579,21 +11657,21 @@
         <v>14</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="L305" s="0" t="s">
-        <v>1218</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>828</v>
+        <v>274</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>14</v>
@@ -11605,21 +11683,21 @@
         <v>14</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="L306" s="0" t="s">
-        <v>1222</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>13</v>
+        <v>705</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>14</v>
@@ -11631,35 +11709,44 @@
         <v>14</v>
       </c>
       <c r="J307" s="0" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>1225</v>
+        <v>1180</v>
       </c>
       <c r="L307" s="0" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>13</v>
+        <v>705</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>1228</v>
+        <v>14</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>1227</v>
+        <v>14</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>1229</v>
+        <v>14</v>
+      </c>
+      <c r="J308" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K308" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L308" s="0" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>13</v>
@@ -11674,21 +11761,21 @@
         <v>14</v>
       </c>
       <c r="J309" s="0" t="s">
-        <v>1231</v>
+        <v>1068</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>1232</v>
+        <v>1069</v>
       </c>
       <c r="L309" s="0" t="s">
-        <v>1233</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>13</v>
+        <v>1239</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>14</v>
@@ -11700,55 +11787,73 @@
         <v>14</v>
       </c>
       <c r="J310" s="0" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="L310" s="0" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>1239</v>
+        <v>14</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>1240</v>
+        <v>14</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>1241</v>
+        <v>14</v>
+      </c>
+      <c r="J311" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K311" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L311" s="0" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>1243</v>
+        <v>14</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>1242</v>
+        <v>14</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>1244</v>
+        <v>14</v>
+      </c>
+      <c r="J312" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K312" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L312" s="0" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>13</v>
+        <v>844</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>14</v>
@@ -11760,21 +11865,21 @@
         <v>14</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="L313" s="0" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>415</v>
+        <v>13</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>14</v>
@@ -11786,44 +11891,35 @@
         <v>14</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="L314" s="0" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>14</v>
+        <v>1260</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>14</v>
+        <v>1259</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J315" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K315" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L315" s="0" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>13</v>
@@ -11838,21 +11934,21 @@
         <v>14</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="L316" s="0" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>14</v>
@@ -11864,72 +11960,81 @@
         <v>14</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="L317" s="0" t="s">
-        <v>1262</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>1271</v>
+        <v>14</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1272</v>
+        <v>14</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>1273</v>
+        <v>14</v>
+      </c>
+      <c r="J320" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K320" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L320" s="0" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>14</v>
@@ -11941,18 +12046,18 @@
         <v>14</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="L321" s="0" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>13</v>
@@ -11967,21 +12072,21 @@
         <v>14</v>
       </c>
       <c r="J322" s="0" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="L322" s="0" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1207</v>
+        <v>13</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>14</v>
@@ -11993,21 +12098,21 @@
         <v>14</v>
       </c>
       <c r="J323" s="0" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="L323" s="0" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1207</v>
+        <v>28</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>14</v>
@@ -12019,236 +12124,245 @@
         <v>14</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="L324" s="0" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>1292</v>
-      </c>
-      <c r="J325" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K325" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L325" s="0" t="s">
-        <v>1037</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>1294</v>
+        <v>13</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="E327" s="0" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>1304</v>
+        <v>14</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>1305</v>
+        <v>14</v>
+      </c>
+      <c r="J328" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K328" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L328" s="0" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>1306</v>
+        <v>14</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>1307</v>
+        <v>14</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>1308</v>
+        <v>14</v>
+      </c>
+      <c r="J329" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K329" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L329" s="0" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>432</v>
+        <v>1239</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>1310</v>
+        <v>14</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>1311</v>
+        <v>14</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>1312</v>
+        <v>14</v>
+      </c>
+      <c r="J330" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K330" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L330" s="0" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>13</v>
+        <v>1239</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>1314</v>
+        <v>14</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>1313</v>
+        <v>14</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>1315</v>
+        <v>14</v>
+      </c>
+      <c r="J331" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K331" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L331" s="0" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>1317</v>
+        <v>13</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>1320</v>
+        <v>1324</v>
+      </c>
+      <c r="J332" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K332" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L332" s="0" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>315</v>
+        <v>1326</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J333" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K333" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L333" s="0" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>14</v>
+        <v>1331</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>14</v>
+        <v>1332</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J334" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K334" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L334" s="0" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>14</v>
+        <v>1335</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>14</v>
+        <v>1336</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J335" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K335" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L335" s="0" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12256,714 +12370,714 @@
         <v>1336</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>14</v>
+        <v>1338</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>14</v>
+        <v>1339</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J336" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="K336" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L336" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>14</v>
+        <v>1342</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>14</v>
+        <v>1343</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J337" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="K337" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L337" s="0" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>1342</v>
+        <v>13</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J338" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="K338" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L338" s="0" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J339" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="K339" s="0" t="s">
         <v>1352</v>
-      </c>
-      <c r="L339" s="0" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D340" s="0" t="s">
         <v>1354</v>
       </c>
-      <c r="B340" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="D340" s="0" t="s">
+      <c r="E340" s="0" t="s">
         <v>1355</v>
       </c>
-      <c r="E340" s="0" t="s">
+      <c r="F340" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="J340" s="0" t="s">
         <v>1357</v>
       </c>
-      <c r="J340" s="0" t="s">
+      <c r="K340" s="0" t="s">
         <v>1358</v>
       </c>
-      <c r="K340" s="0" t="s">
+      <c r="L340" s="0" t="s">
         <v>1359</v>
-      </c>
-      <c r="L340" s="0" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J341" s="0" t="s">
         <v>1361</v>
       </c>
-      <c r="B341" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="D341" s="0" t="s">
+      <c r="K341" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="E341" s="0" t="s">
+      <c r="L341" s="0" t="s">
         <v>1363</v>
-      </c>
-      <c r="F341" s="0" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J341" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="K341" s="0" t="s">
-        <v>1366</v>
-      </c>
-      <c r="L341" s="0" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>1294</v>
+        <v>16</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>1369</v>
+        <v>14</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>1370</v>
+        <v>14</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>1371</v>
+        <v>14</v>
+      </c>
+      <c r="J342" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K342" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L342" s="0" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>1373</v>
+        <v>13</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>1374</v>
+        <v>14</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>1375</v>
+        <v>14</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>1376</v>
+        <v>14</v>
+      </c>
+      <c r="J343" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K343" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L343" s="0" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>283</v>
+        <v>636</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>1374</v>
+        <v>14</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>1375</v>
+        <v>14</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>1376</v>
+        <v>14</v>
+      </c>
+      <c r="J344" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K344" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L344" s="0" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>432</v>
+        <v>1374</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="L345" s="0" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J346" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K346" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L346" s="0" t="s">
         <v>1385</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J346" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K346" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="L346" s="0" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E347" s="0" t="s">
         <v>1388</v>
       </c>
-      <c r="B347" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D347" s="0" t="s">
+      <c r="F347" s="0" t="s">
         <v>1389</v>
       </c>
-      <c r="E347" s="0" t="s">
+      <c r="J347" s="0" t="s">
         <v>1390</v>
       </c>
-      <c r="F347" s="0" t="s">
+      <c r="K347" s="0" t="s">
         <v>1391</v>
       </c>
-      <c r="J347" s="0" t="s">
+      <c r="L347" s="0" t="s">
         <v>1392</v>
-      </c>
-      <c r="K347" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="L347" s="0" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E348" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="B348" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D348" s="0" t="s">
+      <c r="F348" s="0" t="s">
         <v>1396</v>
       </c>
-      <c r="E348" s="0" t="s">
+      <c r="J348" s="0" t="s">
         <v>1397</v>
       </c>
-      <c r="F348" s="0" t="s">
+      <c r="K348" s="0" t="s">
         <v>1398</v>
       </c>
-      <c r="J348" s="0" t="s">
+      <c r="L348" s="0" t="s">
         <v>1399</v>
-      </c>
-      <c r="K348" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="L348" s="0" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E349" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="B349" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F349" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J349" s="0" t="s">
         <v>1403</v>
-      </c>
-      <c r="K349" s="0" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L349" s="0" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D350" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="E350" s="0" t="s">
         <v>1407</v>
       </c>
-      <c r="D350" s="0" t="s">
+      <c r="F350" s="0" t="s">
         <v>1408</v>
-      </c>
-      <c r="E350" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F350" s="0" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>1414</v>
-      </c>
-      <c r="J351" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K351" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L351" s="0" t="s">
-        <v>1327</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J352" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K352" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D352" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="E352" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F352" s="0" t="s">
-        <v>202</v>
+      <c r="L352" s="0" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1419</v>
-      </c>
-      <c r="J353" s="0" t="s">
         <v>1420</v>
-      </c>
-      <c r="K353" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="L353" s="0" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F354" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="B354" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D354" s="0" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E354" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F354" s="0" t="s">
-        <v>1426</v>
-      </c>
       <c r="J354" s="0" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="L354" s="0" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>1431</v>
+        <v>14</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>1432</v>
+        <v>14</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>1433</v>
+        <v>14</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="L355" s="0" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="L356" s="0" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="L357" s="0" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1452</v>
+        <v>13</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>1453</v>
+        <v>14</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>1454</v>
+        <v>14</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>1455</v>
+        <v>14</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="L358" s="0" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>283</v>
+        <v>1446</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>1467</v>
+        <v>1357</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>1468</v>
+        <v>1358</v>
       </c>
       <c r="L360" s="0" t="s">
-        <v>1469</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>654</v>
+        <v>341</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>1471</v>
+        <v>200</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J361" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K361" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L361" s="0" t="s">
-        <v>14</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>315</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>14</v>
+        <v>1458</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>14</v>
+        <v>1459</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>14</v>
+        <v>1460</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="L362" s="0" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>1480</v>
+        <v>1467</v>
+      </c>
+      <c r="J363" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K363" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L363" s="0" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>779</v>
+        <v>13</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>1484</v>
+        <v>1474</v>
+      </c>
+      <c r="J364" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K364" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L364" s="0" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>1487</v>
+        <v>1481</v>
+      </c>
+      <c r="J365" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K365" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L365" s="0" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E366" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F366" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="B366" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="D366" s="0" t="s">
+      <c r="J366" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="E366" s="0" t="s">
+      <c r="K366" s="0" t="s">
         <v>1490</v>
       </c>
-      <c r="F366" s="0" t="s">
+      <c r="L366" s="0" t="s">
         <v>1491</v>
       </c>
     </row>
@@ -12972,85 +13086,76 @@
         <v>1492</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>63</v>
+        <v>1493</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>14</v>
+        <v>1494</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>14</v>
+        <v>1495</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>14</v>
+        <v>1496</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="L367" s="0" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>1499</v>
-      </c>
-      <c r="J368" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="K368" s="0" t="s">
-        <v>1501</v>
-      </c>
-      <c r="L368" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="L369" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1511</v>
+        <v>659</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>1512</v>
@@ -13060,6 +13165,15 @@
       </c>
       <c r="F370" s="0" t="s">
         <v>1514</v>
+      </c>
+      <c r="J370" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K370" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L370" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13067,119 +13181,101 @@
         <v>1515</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="D371" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J371" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="E371" s="0" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F371" s="0" t="s">
+      <c r="K371" s="0" t="s">
         <v>1517</v>
+      </c>
+      <c r="L371" s="0" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B372" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D372" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E372" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="E372" s="0" t="s">
-        <v>1518</v>
-      </c>
       <c r="F372" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>13</v>
+        <v>788</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>14</v>
+        <v>1523</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>14</v>
+        <v>1524</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J373" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K373" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="L373" s="0" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>14</v>
+        <v>1527</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>14</v>
+        <v>1526</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J374" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K374" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L374" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>14</v>
+        <v>1530</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>14</v>
+        <v>1531</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J375" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K375" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="L375" s="0" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>631</v>
+        <v>63</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>14</v>
@@ -13191,554 +13287,778 @@
         <v>14</v>
       </c>
       <c r="J376" s="0" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
       <c r="K376" s="0" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
       <c r="L376" s="0" t="s">
-        <v>1523</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>1533</v>
+        <v>1540</v>
       </c>
       <c r="J377" s="0" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="K377" s="0" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="L377" s="0" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>1539</v>
+        <v>1546</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>1540</v>
+        <v>1547</v>
       </c>
       <c r="J378" s="0" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="K378" s="0" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="L378" s="0" t="s">
-        <v>1543</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>13</v>
+        <v>1552</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1547</v>
-      </c>
-      <c r="J379" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="K379" s="0" t="s">
-        <v>1542</v>
-      </c>
-      <c r="L379" s="0" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J380" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="K380" s="0" t="s">
-        <v>1553</v>
-      </c>
-      <c r="L380" s="0" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1558</v>
-      </c>
-      <c r="J381" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K381" s="0" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L381" s="0" t="s">
-        <v>1327</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F382" s="0" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>1564</v>
+        <v>14</v>
       </c>
       <c r="E383" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J383" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K383" s="0" t="s">
         <v>1565</v>
       </c>
-      <c r="F383" s="0" t="s">
-        <v>1566</v>
-      </c>
-      <c r="J383" s="0" t="s">
+      <c r="L383" s="0" t="s">
         <v>1567</v>
-      </c>
-      <c r="K383" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="L383" s="0" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F384" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J384" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K384" s="0" t="s">
         <v>1570</v>
       </c>
-      <c r="B384" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D384" s="0" t="s">
+      <c r="L384" s="0" t="s">
         <v>1571</v>
-      </c>
-      <c r="E384" s="0" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F384" s="0" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>1574</v>
+        <v>14</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>1575</v>
+        <v>14</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>1576</v>
+        <v>14</v>
+      </c>
+      <c r="J385" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K385" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L385" s="0" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>1578</v>
+        <v>14</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>1577</v>
+        <v>14</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>1579</v>
+        <v>14</v>
+      </c>
+      <c r="J386" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K386" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L386" s="0" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F387" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J387" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K387" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L387" s="0" t="s">
         <v>1580</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D387" s="0" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E387" s="0" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F387" s="0" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F388" s="0" t="s">
         <v>1584</v>
       </c>
-      <c r="B388" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D388" s="0" t="s">
+      <c r="J388" s="0" t="s">
         <v>1585</v>
       </c>
-      <c r="E388" s="0" t="s">
+      <c r="K388" s="0" t="s">
         <v>1586</v>
       </c>
-      <c r="F388" s="0" t="s">
+      <c r="L388" s="0" t="s">
         <v>1587</v>
-      </c>
-      <c r="J388" s="0" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K388" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="L388" s="0" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F389" s="0" t="s">
         <v>1591</v>
       </c>
-      <c r="B389" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="D389" s="0" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E389" s="0" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F389" s="0" t="s">
-        <v>1594</v>
+      <c r="J389" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K389" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="L389" s="0" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F390" s="0" t="s">
         <v>1595</v>
       </c>
-      <c r="B390" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="D390" s="0" t="s">
+      <c r="J390" s="0" t="s">
         <v>1596</v>
       </c>
-      <c r="E390" s="0" t="s">
+      <c r="K390" s="0" t="s">
         <v>1597</v>
       </c>
-      <c r="F390" s="0" t="s">
+      <c r="L390" s="0" t="s">
         <v>1598</v>
-      </c>
-      <c r="J390" s="0" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K390" s="0" t="s">
-        <v>1600</v>
-      </c>
-      <c r="L390" s="0" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F391" s="0" t="s">
         <v>1602</v>
       </c>
-      <c r="B391" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D391" s="0" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E391" s="0" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F391" s="0" t="s">
-        <v>1605</v>
-      </c>
       <c r="J391" s="0" t="s">
-        <v>1606</v>
+        <v>1357</v>
       </c>
       <c r="K391" s="0" t="s">
-        <v>1607</v>
+        <v>1358</v>
       </c>
       <c r="L391" s="0" t="s">
-        <v>1608</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="B392" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J392" s="0" t="s">
-        <v>1613</v>
-      </c>
-      <c r="K392" s="0" t="s">
-        <v>1614</v>
-      </c>
-      <c r="L392" s="0" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="J393" s="0" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="K393" s="0" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="L393" s="0" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1626</v>
-      </c>
-      <c r="J394" s="0" t="s">
-        <v>1627</v>
-      </c>
-      <c r="K394" s="0" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L394" s="0" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1633</v>
-      </c>
-      <c r="J395" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="K395" s="0" t="s">
-        <v>1635</v>
-      </c>
-      <c r="L395" s="0" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>1639</v>
+        <v>1621</v>
       </c>
       <c r="F396" s="0" t="s">
-        <v>1640</v>
-      </c>
-      <c r="J396" s="0" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K396" s="0" t="s">
-        <v>1642</v>
-      </c>
-      <c r="L396" s="0" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
       <c r="B397" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1647</v>
-      </c>
-      <c r="J397" s="0" t="s">
-        <v>1648</v>
-      </c>
-      <c r="L397" s="0" t="s">
-        <v>1649</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>1653</v>
+        <v>1631</v>
       </c>
       <c r="J398" s="0" t="s">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="K398" s="0" t="s">
-        <v>1655</v>
+        <v>1633</v>
       </c>
       <c r="L398" s="0" t="s">
-        <v>1656</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E399" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F399" s="0" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F400" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J400" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K400" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L400" s="0" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F401" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J401" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K401" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L401" s="0" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F402" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J402" s="0" t="s">
         <v>1657</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="K402" s="0" t="s">
         <v>1658</v>
       </c>
-      <c r="D399" s="0" t="s">
+      <c r="L402" s="0" t="s">
         <v>1659</v>
       </c>
-      <c r="E399" s="0" t="s">
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
         <v>1660</v>
       </c>
-      <c r="F399" s="0" t="s">
+      <c r="B403" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" s="0" t="s">
         <v>1661</v>
       </c>
-      <c r="J399" s="0" t="s">
+      <c r="E403" s="0" t="s">
         <v>1662</v>
       </c>
-      <c r="K399" s="0" t="s">
+      <c r="F403" s="0" t="s">
         <v>1663</v>
       </c>
-      <c r="L399" s="0" t="s">
+      <c r="J403" s="0" t="s">
         <v>1664</v>
+      </c>
+      <c r="K403" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L403" s="0" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F404" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J404" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K404" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L404" s="0" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E405" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F405" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J405" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K405" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L405" s="0" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F406" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J406" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K406" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L406" s="0" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F407" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J407" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L407" s="0" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F408" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J408" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K408" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L408" s="0" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F409" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J409" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K409" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L409" s="0" t="s">
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
